--- a/biology/Médecine/Unité_phalangette/Unité_phalangette.xlsx
+++ b/biology/Médecine/Unité_phalangette/Unité_phalangette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_phalangette</t>
+          <t>Unité_phalangette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En dermatologie, on appelle unité phalangette, la quantité de crème ou de pommade déposée, d'un trait continu, sur la longueur de la dernière phalange de l'index d'un adulte par un tube possédant une ouverture de 5 millimètres de diamètre[1]
-. Une unité phalangette correspond à environ 0,5 gramme de produit[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dermatologie, on appelle unité phalangette, la quantité de crème ou de pommade déposée, d'un trait continu, sur la longueur de la dernière phalange de l'index d'un adulte par un tube possédant une ouverture de 5 millimètres de diamètre
+. Une unité phalangette correspond à environ 0,5 gramme de produit.
 </t>
         </is>
       </c>
